--- a/du5/ukol6.xlsx
+++ b/du5/ukol6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pCloud\kryptoDu\du5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FFC9E236-2982-42C7-8A64-C85BDCDD4D3C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85FA98B7-3ED0-4666-982B-B027AAABD294}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{77EBFC0F-1DE0-4458-A4AD-1C05FB603C81}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>všechny 3 +cokoliv = nejde</t>
   </si>
   <si>
-    <t>t-2 (první 2 + cokoliv jineho = nejde)</t>
-  </si>
-  <si>
     <t>t-1 (1. a 3.)</t>
   </si>
   <si>
@@ -75,13 +72,16 @@
     <t>t-1 (2. a 3. nejde)</t>
   </si>
   <si>
-    <t>t-3 (první 2 -&gt; první 2 + cokoliv nejde)</t>
-  </si>
-  <si>
     <t>t-3 (první 2 -&gt; všechny -&gt; 2. a 3.)</t>
   </si>
   <si>
     <t>WINNER</t>
+  </si>
+  <si>
+    <t>t-2 (první 2 -&gt; cokoliv jineho = nejde)</t>
+  </si>
+  <si>
+    <t>t-3 (první 2 -&gt; první 2 -&gt; cokoliv nejde)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA49" sqref="AA49:AA55"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="23" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="29" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1"/>
       <c r="Z29" s="1"/>
@@ -2517,11 +2517,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1"/>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="73" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
